--- a/data/raw_source_files/uscis-cfr-semi-monthly-reports/Congressional-Semi-Monthly-Report-08-01-20-to-08-15-21.xlsx
+++ b/data/raw_source_files/uscis-cfr-semi-monthly-reports/Congressional-Semi-Monthly-Report-08-01-20-to-08-15-21.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA380A0-1B6A-7341-BBD6-A10532954F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D41FA3B0-D694-4021-89E3-FDAE6740F842}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Congressional Semi-Monthly Rep" sheetId="1" r:id="rId1"/>
@@ -671,7 +671,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -753,17 +753,71 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -783,74 +837,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1346,24 +1337,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AB88"/>
+  <dimension ref="B1:AB87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
-    <col min="4" max="28" width="10.6640625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="0.83203125" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" customWidth="1"/>
+    <col min="4" max="28" width="10.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="0.85546875" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:28" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:28" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1392,71 +1383,71 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="6"/>
     </row>
-    <row r="3" spans="2:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="45"/>
-    </row>
-    <row r="4" spans="2:28" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="48"/>
-    </row>
-    <row r="5" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="42"/>
+    </row>
+    <row r="4" spans="2:28" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36"/>
+    </row>
+    <row r="5" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="38"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="27">
         <v>44044</v>
       </c>
@@ -1533,11 +1524,11 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="6" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="26">
         <v>44058</v>
       </c>
@@ -1614,11 +1605,11 @@
         <v>44423</v>
       </c>
     </row>
-    <row r="7" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="41" t="s">
+    <row r="7" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="42"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="10">
         <v>279</v>
       </c>
@@ -1695,11 +1686,11 @@
         <v>3946</v>
       </c>
     </row>
-    <row r="8" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="51" t="s">
+    <row r="8" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="14">
         <v>412</v>
       </c>
@@ -1776,11 +1767,11 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="34"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="10">
         <v>255</v>
       </c>
@@ -1857,11 +1848,11 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="33" t="s">
+    <row r="10" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="10">
         <v>126</v>
       </c>
@@ -1938,11 +1929,11 @@
         <v>738</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+    <row r="11" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="12">
         <v>31</v>
       </c>
@@ -2019,71 +2010,71 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="43" t="s">
+    <row r="12" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="45"/>
-    </row>
-    <row r="13" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="48"/>
-    </row>
-    <row r="14" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="37" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="42"/>
+    </row>
+    <row r="13" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="36"/>
+    </row>
+    <row r="14" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="27">
         <v>44044</v>
       </c>
@@ -2160,11 +2151,11 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="39" t="s">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="26">
         <v>44058</v>
       </c>
@@ -2241,8 +2232,8 @@
         <v>44423</v>
       </c>
     </row>
-    <row r="16" spans="2:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="49" t="s">
+    <row r="16" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="61" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="31" t="s">
@@ -2324,8 +2315,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="49"/>
+    <row r="17" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="61"/>
       <c r="C17" s="32" t="s">
         <v>8</v>
       </c>
@@ -2405,8 +2396,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="49"/>
+    <row r="18" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="61"/>
       <c r="C18" s="20" t="s">
         <v>9</v>
       </c>
@@ -2486,8 +2477,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="49"/>
+    <row r="19" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="61"/>
       <c r="C19" s="20" t="s">
         <v>10</v>
       </c>
@@ -2567,8 +2558,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="49"/>
+    <row r="20" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="61"/>
       <c r="C20" s="20" t="s">
         <v>14</v>
       </c>
@@ -2648,8 +2639,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B21" s="49" t="s">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B21" s="61" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="31" t="s">
@@ -2731,8 +2722,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B22" s="49"/>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B22" s="61"/>
       <c r="C22" s="32" t="s">
         <v>8</v>
       </c>
@@ -2812,8 +2803,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B23" s="49"/>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B23" s="61"/>
       <c r="C23" s="20" t="s">
         <v>9</v>
       </c>
@@ -2893,8 +2884,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B24" s="49"/>
+    <row r="24" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="61"/>
       <c r="C24" s="20" t="s">
         <v>10</v>
       </c>
@@ -2974,8 +2965,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
+    <row r="25" spans="2:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="62"/>
       <c r="C25" s="25" t="s">
         <v>14</v>
       </c>
@@ -3055,71 +3046,71 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="46" t="s">
+    <row r="26" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="48"/>
-    </row>
-    <row r="27" spans="2:28" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="55"/>
-      <c r="AA27" s="55"/>
-      <c r="AB27" s="56"/>
-    </row>
-    <row r="28" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="37" t="s">
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="36"/>
+    </row>
+    <row r="27" spans="2:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="39"/>
+    </row>
+    <row r="28" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="38"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="27">
         <v>44044</v>
       </c>
@@ -3196,11 +3187,11 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="29" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="39" t="s">
+    <row r="29" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="40"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="26">
         <v>44058</v>
       </c>
@@ -3277,11 +3268,11 @@
         <v>44423</v>
       </c>
     </row>
-    <row r="30" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="41" t="s">
+    <row r="30" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="42"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="10">
         <v>66</v>
       </c>
@@ -3342,11 +3333,11 @@
       </c>
       <c r="AB30" s="11"/>
     </row>
-    <row r="31" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="51" t="s">
+    <row r="31" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="52"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="14">
         <v>108</v>
       </c>
@@ -3411,11 +3402,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="33" t="s">
+    <row r="32" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="34"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="10">
         <v>69</v>
       </c>
@@ -3480,11 +3471,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B33" s="33" t="s">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B33" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="34"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="10">
         <v>39</v>
       </c>
@@ -3543,11 +3534,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="35" t="s">
+    <row r="34" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="36"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12">
         <v>3</v>
@@ -3602,71 +3593,71 @@
       </c>
       <c r="AB34" s="13"/>
     </row>
-    <row r="35" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="43" t="s">
+    <row r="35" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="44"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="44"/>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="44"/>
-      <c r="AB35" s="45"/>
-    </row>
-    <row r="36" spans="2:28" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="47"/>
-      <c r="V36" s="47"/>
-      <c r="W36" s="47"/>
-      <c r="X36" s="47"/>
-      <c r="Y36" s="47"/>
-      <c r="Z36" s="47"/>
-      <c r="AA36" s="47"/>
-      <c r="AB36" s="48"/>
-    </row>
-    <row r="37" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="37" t="s">
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="42"/>
+    </row>
+    <row r="36" spans="2:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="36"/>
+    </row>
+    <row r="37" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="38"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="27">
         <v>44044</v>
       </c>
@@ -3743,11 +3734,11 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="38" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="39" t="s">
+    <row r="38" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="40"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="26">
         <v>44058</v>
       </c>
@@ -3824,11 +3815,11 @@
         <v>44423</v>
       </c>
     </row>
-    <row r="39" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="41" t="s">
+    <row r="39" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="42"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="10">
         <v>200</v>
       </c>
@@ -3905,11 +3896,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="51" t="s">
+    <row r="40" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="52"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="14">
         <v>174</v>
       </c>
@@ -3986,11 +3977,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="33" t="s">
+    <row r="41" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="34"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="10">
         <v>18</v>
       </c>
@@ -4067,11 +4058,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="33" t="s">
+    <row r="42" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="34"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="10">
         <v>97</v>
       </c>
@@ -4148,11 +4139,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="35" t="s">
+    <row r="43" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="36"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="12">
         <v>59</v>
       </c>
@@ -4229,71 +4220,71 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="46" t="s">
+    <row r="44" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="47"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="47"/>
-      <c r="W44" s="47"/>
-      <c r="X44" s="47"/>
-      <c r="Y44" s="47"/>
-      <c r="Z44" s="47"/>
-      <c r="AA44" s="47"/>
-      <c r="AB44" s="48"/>
-    </row>
-    <row r="45" spans="2:28" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="46"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="47"/>
-      <c r="X45" s="47"/>
-      <c r="Y45" s="47"/>
-      <c r="Z45" s="47"/>
-      <c r="AA45" s="47"/>
-      <c r="AB45" s="48"/>
-    </row>
-    <row r="46" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="37" t="s">
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
+      <c r="AB44" s="36"/>
+    </row>
+    <row r="45" spans="2:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="34"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="36"/>
+    </row>
+    <row r="46" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="38"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="27">
         <v>44044</v>
       </c>
@@ -4370,11 +4361,11 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="47" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="39" t="s">
+    <row r="47" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="40"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="26">
         <v>44058</v>
       </c>
@@ -4451,11 +4442,11 @@
         <v>44423</v>
       </c>
     </row>
-    <row r="48" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="41" t="s">
+    <row r="48" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="42"/>
+      <c r="C48" s="60"/>
       <c r="D48" s="10">
         <v>5</v>
       </c>
@@ -4532,11 +4523,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="51" t="s">
+    <row r="49" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="52"/>
+      <c r="C49" s="48"/>
       <c r="D49" s="14">
         <v>1</v>
       </c>
@@ -4613,11 +4604,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="33" t="s">
+    <row r="50" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="34"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="10" t="s">
         <v>28</v>
       </c>
@@ -4694,11 +4685,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B51" s="33" t="s">
+    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B51" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="34"/>
+      <c r="C51" s="46"/>
       <c r="D51" s="10">
         <v>1</v>
       </c>
@@ -4775,11 +4766,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="35" t="s">
+    <row r="52" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="36"/>
+      <c r="C52" s="44"/>
       <c r="D52" s="12" t="s">
         <v>28</v>
       </c>
@@ -4856,68 +4847,68 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="43" t="s">
+    <row r="53" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="44"/>
-      <c r="U53" s="44"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="44"/>
-      <c r="X53" s="44"/>
-      <c r="Y53" s="44"/>
-      <c r="Z53" s="44"/>
-      <c r="AA53" s="44"/>
-      <c r="AB53" s="45"/>
-    </row>
-    <row r="54" spans="2:28" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="46"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="47"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="47"/>
-      <c r="S54" s="47"/>
-      <c r="T54" s="47"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
-      <c r="X54" s="47"/>
-      <c r="Y54" s="47"/>
-      <c r="Z54" s="47"/>
-      <c r="AA54" s="47"/>
-      <c r="AB54" s="48"/>
-    </row>
-    <row r="55" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="57" t="s">
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
+      <c r="X53" s="41"/>
+      <c r="Y53" s="41"/>
+      <c r="Z53" s="41"/>
+      <c r="AA53" s="41"/>
+      <c r="AB53" s="42"/>
+    </row>
+    <row r="54" spans="2:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="36"/>
+    </row>
+    <row r="55" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="30" t="s">
@@ -4999,8 +4990,8 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="56" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B56" s="58"/>
+    <row r="56" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B56" s="50"/>
       <c r="C56" s="29" t="s">
         <v>12</v>
       </c>
@@ -5080,8 +5071,8 @@
         <v>44423</v>
       </c>
     </row>
-    <row r="57" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B57" s="59" t="s">
+    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B57" s="51" t="s">
         <v>15</v>
       </c>
       <c r="C57" s="28" t="s">
@@ -5163,8 +5154,8 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="58" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B58" s="59"/>
+    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B58" s="51"/>
       <c r="C58" s="20" t="s">
         <v>9</v>
       </c>
@@ -5244,8 +5235,8 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="59" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B59" s="59"/>
+    <row r="59" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="51"/>
       <c r="C59" s="20" t="s">
         <v>10</v>
       </c>
@@ -5325,8 +5316,8 @@
         <v>738</v>
       </c>
     </row>
-    <row r="60" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B60" s="60"/>
+    <row r="60" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B60" s="52"/>
       <c r="C60" s="20" t="s">
         <v>14</v>
       </c>
@@ -5406,8 +5397,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B61" s="61" t="s">
+    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B61" s="53" t="s">
         <v>16</v>
       </c>
       <c r="C61" s="19" t="s">
@@ -5489,8 +5480,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B62" s="59"/>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B62" s="51"/>
       <c r="C62" s="20" t="s">
         <v>9</v>
       </c>
@@ -5570,8 +5561,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B63" s="59"/>
+    <row r="63" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="51"/>
       <c r="C63" s="20" t="s">
         <v>10</v>
       </c>
@@ -5651,8 +5642,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="62"/>
+    <row r="64" spans="2:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="54"/>
       <c r="C64" s="25" t="s">
         <v>14</v>
       </c>
@@ -5732,68 +5723,68 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="43" t="s">
+    <row r="65" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="44"/>
-      <c r="M65" s="44"/>
-      <c r="N65" s="44"/>
-      <c r="O65" s="44"/>
-      <c r="P65" s="44"/>
-      <c r="Q65" s="44"/>
-      <c r="R65" s="44"/>
-      <c r="S65" s="44"/>
-      <c r="T65" s="44"/>
-      <c r="U65" s="44"/>
-      <c r="V65" s="44"/>
-      <c r="W65" s="44"/>
-      <c r="X65" s="44"/>
-      <c r="Y65" s="44"/>
-      <c r="Z65" s="44"/>
-      <c r="AA65" s="44"/>
-      <c r="AB65" s="45"/>
-    </row>
-    <row r="66" spans="2:28" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="46"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="47"/>
-      <c r="P66" s="47"/>
-      <c r="Q66" s="47"/>
-      <c r="R66" s="47"/>
-      <c r="S66" s="47"/>
-      <c r="T66" s="47"/>
-      <c r="U66" s="47"/>
-      <c r="V66" s="47"/>
-      <c r="W66" s="47"/>
-      <c r="X66" s="47"/>
-      <c r="Y66" s="47"/>
-      <c r="Z66" s="47"/>
-      <c r="AA66" s="47"/>
-      <c r="AB66" s="48"/>
-    </row>
-    <row r="67" spans="2:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="57" t="s">
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="41"/>
+      <c r="S65" s="41"/>
+      <c r="T65" s="41"/>
+      <c r="U65" s="41"/>
+      <c r="V65" s="41"/>
+      <c r="W65" s="41"/>
+      <c r="X65" s="41"/>
+      <c r="Y65" s="41"/>
+      <c r="Z65" s="41"/>
+      <c r="AA65" s="41"/>
+      <c r="AB65" s="42"/>
+    </row>
+    <row r="66" spans="2:28" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="34"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+      <c r="R66" s="35"/>
+      <c r="S66" s="35"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="35"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="35"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="36"/>
+    </row>
+    <row r="67" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="30" t="s">
@@ -5875,8 +5866,8 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="68" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B68" s="58"/>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B68" s="50"/>
       <c r="C68" s="29" t="s">
         <v>12</v>
       </c>
@@ -5956,8 +5947,8 @@
         <v>44423</v>
       </c>
     </row>
-    <row r="69" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B69" s="59" t="s">
+    <row r="69" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B69" s="51" t="s">
         <v>15</v>
       </c>
       <c r="C69" s="28" t="s">
@@ -6039,8 +6030,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B70" s="59"/>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B70" s="51"/>
       <c r="C70" s="20" t="s">
         <v>9</v>
       </c>
@@ -6120,8 +6111,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B71" s="59"/>
+    <row r="71" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B71" s="51"/>
       <c r="C71" s="20" t="s">
         <v>10</v>
       </c>
@@ -6201,8 +6192,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B72" s="60"/>
+    <row r="72" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="52"/>
       <c r="C72" s="20" t="s">
         <v>14</v>
       </c>
@@ -6282,8 +6273,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B73" s="61" t="s">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B73" s="53" t="s">
         <v>24</v>
       </c>
       <c r="C73" s="19" t="s">
@@ -6365,8 +6356,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B74" s="59"/>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B74" s="51"/>
       <c r="C74" s="20" t="s">
         <v>9</v>
       </c>
@@ -6446,8 +6437,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="2:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="B75" s="59"/>
+    <row r="75" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B75" s="51"/>
       <c r="C75" s="20" t="s">
         <v>10</v>
       </c>
@@ -6527,8 +6518,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="62"/>
+    <row r="76" spans="2:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="54"/>
       <c r="C76" s="25" t="s">
         <v>14</v>
       </c>
@@ -6608,143 +6599,114 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="63"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="65"/>
-      <c r="K77" s="65"/>
-      <c r="L77" s="65"/>
-      <c r="M77" s="65"/>
-      <c r="N77" s="65"/>
-      <c r="O77" s="65"/>
-      <c r="P77" s="65"/>
-      <c r="Q77" s="65"/>
-      <c r="R77" s="65"/>
-      <c r="S77" s="65"/>
-      <c r="T77" s="65"/>
-      <c r="U77" s="65"/>
-      <c r="V77" s="65"/>
-      <c r="W77" s="65"/>
-      <c r="X77" s="65"/>
-      <c r="Y77" s="65"/>
-      <c r="Z77" s="65"/>
-      <c r="AA77" s="65"/>
-      <c r="AB77" s="65"/>
-    </row>
-    <row r="78" spans="2:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="22"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="22"/>
-      <c r="O78" s="22"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="22"/>
-      <c r="S78" s="22"/>
-      <c r="T78" s="22"/>
-      <c r="U78" s="22"/>
-      <c r="V78" s="22"/>
-      <c r="W78" s="22"/>
-      <c r="X78" s="22"/>
-      <c r="Y78" s="22"/>
-      <c r="Z78" s="22"/>
-      <c r="AA78" s="22"/>
-      <c r="AB78" s="22"/>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B79" s="7" t="s">
+    <row r="77" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="22"/>
+      <c r="S77" s="22"/>
+      <c r="T77" s="22"/>
+      <c r="U77" s="22"/>
+      <c r="V77" s="22"/>
+      <c r="W77" s="22"/>
+      <c r="X77" s="22"/>
+      <c r="Y77" s="22"/>
+      <c r="Z77" s="22"/>
+      <c r="AA77" s="22"/>
+      <c r="AB77" s="22"/>
+    </row>
+    <row r="78" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B78" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="7"/>
-    </row>
-    <row r="80" spans="2:28" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="53" t="s">
+      <c r="C78" s="7"/>
+    </row>
+    <row r="79" spans="2:28" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-      <c r="J80" s="53"/>
-    </row>
-    <row r="81" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="9" t="s">
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
+    </row>
+    <row r="80" spans="2:28" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="C80" s="9"/>
+    </row>
+    <row r="81" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="9"/>
       <c r="C81" s="9"/>
     </row>
-    <row r="82" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-    </row>
-    <row r="83" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="18" t="s">
+    <row r="82" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="18" t="s">
         <v>13</v>
       </c>
+      <c r="C82" s="18"/>
+    </row>
+    <row r="83" spans="2:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="18"/>
       <c r="C83" s="18"/>
     </row>
-    <row r="84" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B85" s="7" t="s">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="7"/>
-    </row>
-    <row r="86" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="C84" s="7"/>
+    </row>
+    <row r="85" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="8"/>
+    </row>
+    <row r="86" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B87" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C87" s="8"/>
-    </row>
-    <row r="88" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
+    <row r="87" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B80:J80"/>
-    <mergeCell ref="B26:AB27"/>
-    <mergeCell ref="B35:AB36"/>
-    <mergeCell ref="B44:AB45"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B12:AB13"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B3:AB4"/>
     <mergeCell ref="B53:AB54"/>
     <mergeCell ref="B65:AB66"/>
@@ -6761,24 +6723,24 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B12:AB13"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B79:J79"/>
+    <mergeCell ref="B26:AB27"/>
+    <mergeCell ref="B35:AB36"/>
+    <mergeCell ref="B44:AB45"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B67:B68"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B83" r:id="rId1" xr:uid="{22FBF630-D998-3E41-80E8-C90B6BCF1661}"/>
+    <hyperlink ref="B82" r:id="rId1" xr:uid="{22FBF630-D998-3E41-80E8-C90B6BCF1661}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
